--- a/conf/excel/B_China_Region.xlsx
+++ b/conf/excel/B_China_Region.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\综合学习资料\tencent\配置文件相关\newCA-config-clear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\综合学习资料\tencent\配置文件相关\newCA-config-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E0AEB7-A3A4-4D06-8E56-4341BF04301B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2129E6C1-3E7D-444A-97D0-96D5A5FB6F88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B_China_Region.conf" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <r>
       <rPr>
@@ -242,6 +242,18 @@
   <si>
     <t>kind=013d</t>
   </si>
+  <si>
+    <t>kind=0131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog=0602030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国已定国界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -278,12 +290,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -350,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -372,6 +390,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C16" sqref="A16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -824,13 +845,24 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>4</v>
       </c>
     </row>
